--- a/excelfile/output.xlsx
+++ b/excelfile/output.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" r:id="rId3" sheetId="1"/>
-    <sheet name="sheet2" r:id="rId4" sheetId="2"/>
+    <sheet name="Student Insurance Plan" r:id="rId3" sheetId="1"/>
+    <sheet name="All Health Insurance List" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -126,12 +126,12 @@
     <t>Optima Secure</t>
   </si>
   <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
     <t>Prime – Advantage</t>
   </si>
   <si>
-    <t>Lifetime</t>
-  </si>
-  <si>
     <t>Prime – Protect</t>
   </si>
   <si>
@@ -174,10 +174,10 @@
     <t>Digi Pro</t>
   </si>
   <si>
-    <t>Arogya Supreme</t>
-  </si>
-  <si>
     <t>Flexi Health</t>
+  </si>
+  <si>
+    <t>Health QuBE Basic</t>
   </si>
 </sst>
 </file>
